--- a/TC09_SelectRequest/09_ActionAlertMessage_SelectRequest.xlsx
+++ b/TC09_SelectRequest/09_ActionAlertMessage_SelectRequest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\test2\it\Project_Test_AcademicService\TC09_SelectRequest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A9FCB8-84C2-45F2-A392-3CEA262A7018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1EAC60-6926-4107-9A44-004F719340BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="TC09-TC" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
